--- a/Lib+Prevision.xlsx
+++ b/Lib+Prevision.xlsx
@@ -8,21 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1Pqk8BK6G5HWTDTy2dBLQ1aZ940QLrSRg\LIB Setor Construção\24- Compilado de todos os projetos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9245DBB-733B-4D9D-BB83-EC8DE037B0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF18617E-96F9-468C-9102-72AEF78201B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="3" xr2:uid="{C50B0522-ECE5-4388-8E25-2BCB4D9422AB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{C50B0522-ECE5-4388-8E25-2BCB4D9422AB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Clientes LIB" sheetId="5" r:id="rId1"/>
-    <sheet name="ClientesPrevision" sheetId="2" r:id="rId2"/>
+    <sheet name="Clientes " sheetId="5" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
     <sheet name="clientes" sheetId="1" state="hidden" r:id="rId3"/>
-    <sheet name="clientes (2)" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">clientes!$A$1:$S$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'clientes (2)'!$A$1:$N$58</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Clientes LIB'!$A$1:$O$58</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ClientesPrevision!$A$1:$X$785</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Clientes '!$A$1:$O$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha1!$A$1:$X$785</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16191" uniqueCount="2581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15638" uniqueCount="2575">
   <si>
     <t>Cliente</t>
   </si>
@@ -7770,24 +7768,6 @@
   </si>
   <si>
     <t>57702933000148</t>
-  </si>
-  <si>
-    <t>EcossistemaStarian</t>
-  </si>
-  <si>
-    <t>Ferramenta</t>
-  </si>
-  <si>
-    <t>19 possíveis prospects</t>
-  </si>
-  <si>
-    <t>(Não é Cliente; Último projeto com LIB foi esse ano/ano passado; Atuam com construção; Porte Médio+; Atual contato promissor)</t>
-  </si>
-  <si>
-    <t>3 Churn Prevision</t>
-  </si>
-  <si>
-    <t>Checklist</t>
   </si>
 </sst>
 </file>
@@ -7795,8 +7775,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="7" formatCode="&quot;R$&quot;\ #,##0.00;\-&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.###############;\-&quot;R$&quot;\ #,##0.###############;&quot;R$&quot;\ #,##0.###############"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00;\-&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.###############;\-&quot;R$&quot;\ #,##0.###############;&quot;R$&quot;\ #,##0.###############"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -8053,7 +8033,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8084,15 +8064,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="7" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -8257,9 +8237,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -8617,7 +8594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06A5DD3-125C-4E0B-B4D8-5ECA738E0F30}">
   <dimension ref="A1:Z58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
@@ -8682,10 +8659,10 @@
       <c r="L1" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="84" t="s">
+      <c r="M1" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="84" t="s">
+      <c r="N1" s="83" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="50" t="s">
@@ -8733,14 +8710,14 @@
       <c r="L2" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="85" t="s">
+      <c r="M2" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="85"/>
+      <c r="N2" s="84"/>
       <c r="O2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="83" t="s">
+      <c r="P2" s="82" t="s">
         <v>26</v>
       </c>
       <c r="Q2"/>
@@ -8784,15 +8761,15 @@
         <v>2020</v>
       </c>
       <c r="L3" s="66"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
       <c r="O3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="83" t="s">
+      <c r="P3" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="82"/>
+      <c r="Q3" s="2"/>
       <c r="R3" s="3" t="s">
         <v>31</v>
       </c>
@@ -8836,8 +8813,8 @@
         <v>2020</v>
       </c>
       <c r="L4" s="68"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
       <c r="O4" s="54" t="s">
         <v>38</v>
       </c>
@@ -8887,10 +8864,10 @@
       <c r="L5" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="87" t="s">
+      <c r="M5" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="87" t="s">
+      <c r="N5" s="86" t="s">
         <v>49</v>
       </c>
       <c r="O5" s="52" t="s">
@@ -8939,10 +8916,10 @@
       <c r="L6" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="87" t="s">
+      <c r="M6" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
       <c r="O6" s="52" t="s">
         <v>50</v>
       </c>
@@ -8983,8 +8960,8 @@
         <v>2024</v>
       </c>
       <c r="L7" s="67"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
       <c r="O7" s="52" t="s">
         <v>50</v>
       </c>
@@ -9027,10 +9004,10 @@
       <c r="L8" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="87" t="s">
+      <c r="M8" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="87" t="s">
+      <c r="N8" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O8" s="52" t="s">
@@ -9073,8 +9050,8 @@
         <v>67</v>
       </c>
       <c r="L9" s="67"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
       <c r="O9" s="52" t="s">
         <v>50</v>
       </c>
@@ -9115,8 +9092,8 @@
         <v>72</v>
       </c>
       <c r="L10" s="67"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
       <c r="O10" s="52" t="s">
         <v>50</v>
       </c>
@@ -9157,8 +9134,8 @@
         <v>76</v>
       </c>
       <c r="L11" s="67"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
       <c r="O11" s="52" t="s">
         <v>50</v>
       </c>
@@ -9199,8 +9176,8 @@
         <v>82</v>
       </c>
       <c r="L12" s="67"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
       <c r="O12" s="52" t="s">
         <v>50</v>
       </c>
@@ -9244,8 +9221,8 @@
         <v>90</v>
       </c>
       <c r="L13" s="67"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
       <c r="O13" s="52" t="s">
         <v>50</v>
       </c>
@@ -9294,10 +9271,10 @@
       <c r="L14" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="M14" s="87" t="s">
+      <c r="M14" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="N14" s="87" t="s">
+      <c r="N14" s="86" t="s">
         <v>99</v>
       </c>
       <c r="O14" s="52" t="s">
@@ -9343,8 +9320,8 @@
         <v>2024</v>
       </c>
       <c r="L15" s="67"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
       <c r="O15" s="52" t="s">
         <v>50</v>
       </c>
@@ -9387,10 +9364,10 @@
       <c r="L16" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="M16" s="87" t="s">
+      <c r="M16" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="N16" s="87" t="s">
+      <c r="N16" s="86" t="s">
         <v>49</v>
       </c>
       <c r="O16" s="52" t="s">
@@ -9433,8 +9410,8 @@
         <v>2024</v>
       </c>
       <c r="L17" s="67"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
       <c r="O17" s="52" t="s">
         <v>50</v>
       </c>
@@ -9475,8 +9452,8 @@
         <v>2024</v>
       </c>
       <c r="L18" s="67"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
       <c r="O18" s="52" t="s">
         <v>50</v>
       </c>
@@ -9517,15 +9494,15 @@
         <v>2025</v>
       </c>
       <c r="L19" s="80"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
       <c r="O19" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="P19" s="83" t="s">
+      <c r="P19" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="Q19" s="82"/>
+      <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:26" s="3" customFormat="1" ht="29.25">
       <c r="A20" s="39" t="s">
@@ -9562,8 +9539,8 @@
         <v>132</v>
       </c>
       <c r="L20" s="67"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="87"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
       <c r="O20" s="52" t="s">
         <v>50</v>
       </c>
@@ -9604,8 +9581,8 @@
         <v>137</v>
       </c>
       <c r="L21" s="67"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="87"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
       <c r="O21" s="52" t="s">
         <v>50</v>
       </c>
@@ -9646,8 +9623,8 @@
         <v>137</v>
       </c>
       <c r="L22" s="67"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
       <c r="O22" s="52" t="s">
         <v>50</v>
       </c>
@@ -9690,10 +9667,10 @@
       <c r="L23" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="M23" s="89" t="s">
+      <c r="M23" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="N23" s="89" t="s">
+      <c r="N23" s="88" t="s">
         <v>147</v>
       </c>
       <c r="O23" s="53" t="s">
@@ -9736,8 +9713,8 @@
         <v>2022</v>
       </c>
       <c r="L24" s="68"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="85"/>
       <c r="O24" s="54" t="s">
         <v>154</v>
       </c>
@@ -9780,10 +9757,10 @@
       <c r="L25" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="M25" s="86" t="s">
+      <c r="M25" s="85" t="s">
         <v>162</v>
       </c>
-      <c r="N25" s="86"/>
+      <c r="N25" s="85"/>
       <c r="O25" s="54" t="s">
         <v>163</v>
       </c>
@@ -9826,10 +9803,10 @@
       <c r="L26" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="M26" s="89" t="s">
+      <c r="M26" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="N26" s="89" t="s">
+      <c r="N26" s="88" t="s">
         <v>147</v>
       </c>
       <c r="O26" s="53" t="s">
@@ -9874,10 +9851,10 @@
       <c r="L27" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="M27" s="86" t="s">
+      <c r="M27" s="85" t="s">
         <v>174</v>
       </c>
-      <c r="N27" s="86" t="s">
+      <c r="N27" s="85" t="s">
         <v>174</v>
       </c>
       <c r="O27" s="54" t="s">
@@ -9922,10 +9899,10 @@
       <c r="L28" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="M28" s="86" t="s">
+      <c r="M28" s="85" t="s">
         <v>180</v>
       </c>
-      <c r="N28" s="86"/>
+      <c r="N28" s="85"/>
       <c r="O28" s="54" t="s">
         <v>154</v>
       </c>
@@ -9966,8 +9943,8 @@
         <v>2021</v>
       </c>
       <c r="L29" s="68"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="85"/>
       <c r="O29" s="54" t="s">
         <v>154</v>
       </c>
@@ -10010,10 +9987,10 @@
       <c r="L30" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="M30" s="89" t="s">
+      <c r="M30" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="N30" s="89" t="s">
+      <c r="N30" s="88" t="s">
         <v>147</v>
       </c>
       <c r="O30" s="53" t="s">
@@ -10056,8 +10033,8 @@
         <v>2023</v>
       </c>
       <c r="L31" s="68"/>
-      <c r="M31" s="86"/>
-      <c r="N31" s="86"/>
+      <c r="M31" s="85"/>
+      <c r="N31" s="85"/>
       <c r="O31" s="54" t="s">
         <v>154</v>
       </c>
@@ -10100,10 +10077,10 @@
       <c r="L32" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="M32" s="90" t="s">
+      <c r="M32" s="89" t="s">
         <v>190</v>
       </c>
-      <c r="N32" s="90" t="s">
+      <c r="N32" s="89" t="s">
         <v>190</v>
       </c>
       <c r="O32" s="54" t="s">
@@ -10151,12 +10128,12 @@
         <v>2023</v>
       </c>
       <c r="L33" s="68"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="85"/>
       <c r="O33" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="P33" s="83"/>
+      <c r="P33" s="82"/>
       <c r="Q33"/>
     </row>
     <row r="34" spans="1:25" s="3" customFormat="1" ht="21.75" customHeight="1">
@@ -10196,10 +10173,10 @@
       <c r="L34" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="M34" s="86" t="s">
+      <c r="M34" s="85" t="s">
         <v>196</v>
       </c>
-      <c r="N34" s="86"/>
+      <c r="N34" s="85"/>
       <c r="O34" s="54" t="s">
         <v>163</v>
       </c>
@@ -10242,10 +10219,10 @@
       <c r="L35" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="M35" s="89" t="s">
+      <c r="M35" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="N35" s="89" t="s">
+      <c r="N35" s="88" t="s">
         <v>147</v>
       </c>
       <c r="O35" s="53" t="s">
@@ -10295,10 +10272,10 @@
       <c r="L36" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="M36" s="90" t="s">
+      <c r="M36" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="N36" s="90" t="s">
+      <c r="N36" s="89" t="s">
         <v>206</v>
       </c>
       <c r="O36" s="54" t="s">
@@ -10346,16 +10323,16 @@
       <c r="L37" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="M37" s="89" t="s">
+      <c r="M37" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="N37" s="89" t="s">
+      <c r="N37" s="88" t="s">
         <v>147</v>
       </c>
       <c r="O37" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="P37" s="83"/>
+      <c r="P37" s="82"/>
       <c r="Q37"/>
     </row>
     <row r="38" spans="1:25" ht="43.5">
@@ -10395,10 +10372,10 @@
       <c r="L38" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="M38" s="90" t="s">
+      <c r="M38" s="89" t="s">
         <v>216</v>
       </c>
-      <c r="N38" s="90" t="s">
+      <c r="N38" s="89" t="s">
         <v>217</v>
       </c>
       <c r="O38" s="54" t="s">
@@ -10444,12 +10421,12 @@
         <v>222</v>
       </c>
       <c r="L39" s="68"/>
-      <c r="M39" s="86"/>
-      <c r="N39" s="86"/>
+      <c r="M39" s="85"/>
+      <c r="N39" s="85"/>
       <c r="O39" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="P39" s="83"/>
+      <c r="P39" s="82"/>
       <c r="Q39"/>
     </row>
     <row r="40" spans="1:25" ht="43.5">
@@ -10487,8 +10464,8 @@
         <v>2018</v>
       </c>
       <c r="L40" s="69"/>
-      <c r="M40" s="90"/>
-      <c r="N40" s="90"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="89"/>
       <c r="O40" s="54" t="s">
         <v>154</v>
       </c>
@@ -10532,12 +10509,12 @@
         <v>2018</v>
       </c>
       <c r="L41" s="69"/>
-      <c r="M41" s="90"/>
-      <c r="N41" s="90"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="89"/>
       <c r="O41" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="P41" s="83"/>
+      <c r="P41" s="82"/>
       <c r="S41" s="3"/>
       <c r="X41" s="3"/>
     </row>
@@ -10576,12 +10553,12 @@
         <v>2019</v>
       </c>
       <c r="L42" s="68"/>
-      <c r="M42" s="86"/>
-      <c r="N42" s="86"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="85"/>
       <c r="O42" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="P42" s="83"/>
+      <c r="P42" s="82"/>
       <c r="Q42"/>
     </row>
     <row r="43" spans="1:25" ht="29.25">
@@ -10619,8 +10596,8 @@
         <v>237</v>
       </c>
       <c r="L43" s="69"/>
-      <c r="M43" s="90"/>
-      <c r="N43" s="90"/>
+      <c r="M43" s="89"/>
+      <c r="N43" s="89"/>
       <c r="O43" s="54" t="s">
         <v>154</v>
       </c>
@@ -10664,12 +10641,12 @@
         <v>2018</v>
       </c>
       <c r="L44" s="68"/>
-      <c r="M44" s="86"/>
-      <c r="N44" s="86"/>
+      <c r="M44" s="85"/>
+      <c r="N44" s="85"/>
       <c r="O44" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="P44" s="83"/>
+      <c r="P44" s="82"/>
       <c r="Q44"/>
     </row>
     <row r="45" spans="1:25" ht="29.25">
@@ -10707,8 +10684,8 @@
         <v>245</v>
       </c>
       <c r="L45" s="69"/>
-      <c r="M45" s="90"/>
-      <c r="N45" s="90"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="89"/>
       <c r="O45" s="54" t="s">
         <v>154</v>
       </c>
@@ -10754,16 +10731,16 @@
       <c r="L46" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="M46" s="90" t="s">
+      <c r="M46" s="89" t="s">
         <v>251</v>
       </c>
-      <c r="N46" s="90" t="s">
+      <c r="N46" s="89" t="s">
         <v>252</v>
       </c>
       <c r="O46" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="P46" s="83"/>
+      <c r="P46" s="82"/>
       <c r="S46" s="3"/>
       <c r="X46" s="3"/>
     </row>
@@ -10802,12 +10779,12 @@
         <v>2021</v>
       </c>
       <c r="L47" s="68"/>
-      <c r="M47" s="86"/>
-      <c r="N47" s="86"/>
+      <c r="M47" s="85"/>
+      <c r="N47" s="85"/>
       <c r="O47" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="P47" s="83"/>
+      <c r="P47" s="82"/>
       <c r="Q47"/>
     </row>
     <row r="48" spans="1:25" s="3" customFormat="1">
@@ -10847,10 +10824,10 @@
       <c r="L48" s="68" t="s">
         <v>250</v>
       </c>
-      <c r="M48" s="86" t="s">
+      <c r="M48" s="85" t="s">
         <v>258</v>
       </c>
-      <c r="N48" s="86" t="s">
+      <c r="N48" s="85" t="s">
         <v>258</v>
       </c>
       <c r="O48" s="54" t="s">
@@ -10893,8 +10870,8 @@
         <v>261</v>
       </c>
       <c r="L49" s="68"/>
-      <c r="M49" s="86"/>
-      <c r="N49" s="86"/>
+      <c r="M49" s="85"/>
+      <c r="N49" s="85"/>
       <c r="O49" s="54" t="s">
         <v>154</v>
       </c>
@@ -10935,8 +10912,8 @@
         <v>261</v>
       </c>
       <c r="L50" s="68"/>
-      <c r="M50" s="86"/>
-      <c r="N50" s="86"/>
+      <c r="M50" s="85"/>
+      <c r="N50" s="85"/>
       <c r="O50" s="54" t="s">
         <v>154</v>
       </c>
@@ -10977,8 +10954,8 @@
         <v>2021</v>
       </c>
       <c r="L51" s="68"/>
-      <c r="M51" s="86"/>
-      <c r="N51" s="86"/>
+      <c r="M51" s="85"/>
+      <c r="N51" s="85"/>
       <c r="O51" s="54" t="s">
         <v>154</v>
       </c>
@@ -11021,10 +10998,10 @@
       <c r="L52" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="M52" s="89" t="s">
+      <c r="M52" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="N52" s="89" t="s">
+      <c r="N52" s="88" t="s">
         <v>147</v>
       </c>
       <c r="O52" s="53" t="s">
@@ -11067,8 +11044,8 @@
         <v>2022</v>
       </c>
       <c r="L53" s="68"/>
-      <c r="M53" s="86"/>
-      <c r="N53" s="86"/>
+      <c r="M53" s="85"/>
+      <c r="N53" s="85"/>
       <c r="O53" s="54" t="s">
         <v>154</v>
       </c>
@@ -11109,8 +11086,8 @@
         <v>2022</v>
       </c>
       <c r="L54" s="69"/>
-      <c r="M54" s="90"/>
-      <c r="N54" s="90"/>
+      <c r="M54" s="89"/>
+      <c r="N54" s="89"/>
       <c r="O54" s="54" t="s">
         <v>154</v>
       </c>
@@ -11156,14 +11133,14 @@
       <c r="L55" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="M55" s="86" t="s">
+      <c r="M55" s="85" t="s">
         <v>286</v>
       </c>
-      <c r="N55" s="86"/>
+      <c r="N55" s="85"/>
       <c r="O55" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="P55" s="83"/>
+      <c r="P55" s="82"/>
       <c r="Q55"/>
     </row>
     <row r="56" spans="1:24" ht="29.25">
@@ -11201,8 +11178,8 @@
         <v>2023</v>
       </c>
       <c r="L56" s="69"/>
-      <c r="M56" s="90"/>
-      <c r="N56" s="90"/>
+      <c r="M56" s="89"/>
+      <c r="N56" s="89"/>
       <c r="O56" s="54" t="s">
         <v>154</v>
       </c>
@@ -11246,12 +11223,12 @@
         <v>2023</v>
       </c>
       <c r="L57" s="69"/>
-      <c r="M57" s="90"/>
-      <c r="N57" s="90"/>
+      <c r="M57" s="89"/>
+      <c r="N57" s="89"/>
       <c r="O57" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="P57" s="83"/>
+      <c r="P57" s="82"/>
       <c r="S57" s="3"/>
       <c r="X57" s="3"/>
     </row>
@@ -11292,16 +11269,16 @@
       <c r="L58" s="81" t="s">
         <v>298</v>
       </c>
-      <c r="M58" s="91" t="s">
+      <c r="M58" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="N58" s="91" t="s">
+      <c r="N58" s="90" t="s">
         <v>49</v>
       </c>
       <c r="O58" s="52" t="s">
         <v>299</v>
       </c>
-      <c r="P58" s="83"/>
+      <c r="P58" s="82"/>
       <c r="S58" s="3"/>
       <c r="X58" s="3"/>
     </row>
@@ -11319,8 +11296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4D174C-1E4D-424C-813F-F35000897C7B}">
   <dimension ref="A1:AX803"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -77089,11 +77066,11 @@
         <v>2020</v>
       </c>
       <c r="Q2" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B2)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B2)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S2" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B2)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B2)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -77132,11 +77109,11 @@
         <v>2025</v>
       </c>
       <c r="Q3" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B3)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B3)&gt;0,"Sim","Não")</f>
         <v>Sim</v>
       </c>
       <c r="S3" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B3)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B3)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -77175,11 +77152,11 @@
         <v>2022</v>
       </c>
       <c r="Q4" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B4)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B4)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S4" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B4)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B4)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -77218,11 +77195,11 @@
         <v>2022</v>
       </c>
       <c r="Q5" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B5)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B5)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S5" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B5)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B5)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -77261,11 +77238,11 @@
         <v>2020</v>
       </c>
       <c r="Q6" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B6)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B6)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S6" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B6)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B6)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -77304,11 +77281,11 @@
         <v>168</v>
       </c>
       <c r="Q7" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B7)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B7)&gt;0,"Sim","Não")</f>
         <v>Sim</v>
       </c>
       <c r="S7" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B7)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B7)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -77347,11 +77324,11 @@
         <v>2021</v>
       </c>
       <c r="Q8" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B8)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B8)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S8" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B8)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B8)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -77390,11 +77367,11 @@
         <v>2020</v>
       </c>
       <c r="Q9" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B9)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B9)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S9" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B9)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B9)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -77433,11 +77410,11 @@
         <v>179</v>
       </c>
       <c r="Q10" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B10)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B10)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S10" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B10)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B10)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -77476,11 +77453,11 @@
         <v>2021</v>
       </c>
       <c r="Q11" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B11)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B11)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S11" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B11)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B11)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -77519,11 +77496,11 @@
         <v>2023</v>
       </c>
       <c r="Q12" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B12)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B12)&gt;0,"Sim","Não")</f>
         <v>Sim</v>
       </c>
       <c r="S12" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B12)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B12)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -77562,11 +77539,11 @@
         <v>2023</v>
       </c>
       <c r="Q13" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B13)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B13)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S13" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B13)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B13)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -77605,11 +77582,11 @@
         <v>2023</v>
       </c>
       <c r="Q14" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B14)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B14)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S14" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B14)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B14)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -77648,11 +77625,11 @@
         <v>2023</v>
       </c>
       <c r="Q15" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B15)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B15)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S15" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B15)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B15)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -77691,11 +77668,11 @@
         <v>2023</v>
       </c>
       <c r="Q16" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B16)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B16)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S16" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B16)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B16)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -77734,11 +77711,11 @@
         <v>47</v>
       </c>
       <c r="Q17" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B17)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B17)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S17" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B17)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B17)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -77777,11 +77754,11 @@
         <v>202</v>
       </c>
       <c r="Q18" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B18)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B18)&gt;0,"Sim","Não")</f>
         <v>Sim</v>
       </c>
       <c r="S18" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B18)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B18)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -77820,11 +77797,11 @@
         <v>2024</v>
       </c>
       <c r="Q19" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B19)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B19)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S19" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B19)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B19)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -77863,11 +77840,11 @@
         <v>2024</v>
       </c>
       <c r="Q20" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B20)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B20)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S20" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B20)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B20)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -77906,11 +77883,11 @@
         <v>60</v>
       </c>
       <c r="Q21" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B21)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B21)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S21" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B21)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B21)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -77949,11 +77926,11 @@
         <v>2022</v>
       </c>
       <c r="Q22" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B22)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B22)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S22" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B22)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B22)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -77992,11 +77969,11 @@
         <v>211</v>
       </c>
       <c r="Q23" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B23)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B23)&gt;0,"Sim","Não")</f>
         <v>Sim</v>
       </c>
       <c r="S23" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B23)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B23)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -78035,11 +78012,11 @@
         <v>67</v>
       </c>
       <c r="Q24" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B24)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B24)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S24" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B24)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B24)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -78078,11 +78055,11 @@
         <v>72</v>
       </c>
       <c r="Q25" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B25)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B25)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S25" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B25)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B25)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -78121,11 +78098,11 @@
         <v>215</v>
       </c>
       <c r="Q26" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B26)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B26)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S26" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B26)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B26)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -78164,11 +78141,11 @@
         <v>76</v>
       </c>
       <c r="Q27" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B27)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B27)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S27" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B27)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B27)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -78207,11 +78184,11 @@
         <v>222</v>
       </c>
       <c r="Q28" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B28)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B28)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S28" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B28)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B28)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -78250,11 +78227,11 @@
         <v>2018</v>
       </c>
       <c r="Q29" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B29)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B29)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S29" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B29)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B29)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -78293,11 +78270,11 @@
         <v>2018</v>
       </c>
       <c r="Q30" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B30)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B30)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S30" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B30)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B30)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -78336,11 +78313,11 @@
         <v>2019</v>
       </c>
       <c r="Q31" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B31)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B31)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S31" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B31)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B31)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -78379,11 +78356,11 @@
         <v>237</v>
       </c>
       <c r="Q32" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B32)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B32)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S32" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B32)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B32)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -78422,11 +78399,11 @@
         <v>2018</v>
       </c>
       <c r="Q33" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B33)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B33)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S33" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B33)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B33)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -78465,11 +78442,11 @@
         <v>245</v>
       </c>
       <c r="Q34" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B34)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B34)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S34" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B34)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B34)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -78508,12 +78485,12 @@
         <v>2021</v>
       </c>
       <c r="Q35" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B35)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B35)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="R35" s="3"/>
       <c r="S35" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B35)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B35)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -78552,12 +78529,12 @@
         <v>2021</v>
       </c>
       <c r="Q36" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B36)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B36)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="R36" s="3"/>
       <c r="S36" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B36)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B36)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -78596,11 +78573,11 @@
         <v>82</v>
       </c>
       <c r="Q37" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B37)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B37)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S37" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B37)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B37)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -78639,12 +78616,12 @@
         <v>2021</v>
       </c>
       <c r="Q38" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B38)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B38)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="R38" s="3"/>
       <c r="S38" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B38)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B38)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -78683,11 +78660,11 @@
         <v>261</v>
       </c>
       <c r="Q39" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B39)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B39)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S39" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B39)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B39)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -78726,12 +78703,12 @@
         <v>261</v>
       </c>
       <c r="Q40" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B40)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B40)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="R40" s="3"/>
       <c r="S40" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B40)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B40)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -78770,12 +78747,12 @@
         <v>90</v>
       </c>
       <c r="Q41" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B41)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B41)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="R41" s="3"/>
       <c r="S41" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B41)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B41)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -78814,11 +78791,11 @@
         <v>2021</v>
       </c>
       <c r="Q42" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B42)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B42)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S42" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B42)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B42)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -78857,12 +78834,12 @@
         <v>277</v>
       </c>
       <c r="Q43" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B43)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B43)&gt;0,"Sim","Não")</f>
         <v>Sim</v>
       </c>
       <c r="R43" s="3"/>
       <c r="S43" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B43)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B43)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -78901,11 +78878,11 @@
         <v>2022</v>
       </c>
       <c r="Q44" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B44)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B44)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S44" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B44)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B44)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -78944,12 +78921,12 @@
         <v>2022</v>
       </c>
       <c r="Q45" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B45)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B45)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="R45" s="3"/>
       <c r="S45" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B45)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B45)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -78988,12 +78965,12 @@
         <v>98</v>
       </c>
       <c r="Q46" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B46)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B46)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B46)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B46)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -79032,11 +79009,11 @@
         <v>2022</v>
       </c>
       <c r="Q47" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B47)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B47)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S47" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B47)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B47)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -79075,11 +79052,11 @@
         <v>2024</v>
       </c>
       <c r="Q48" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B48)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B48)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S48" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B48)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B48)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -79118,11 +79095,11 @@
         <v>2024</v>
       </c>
       <c r="Q49" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B49)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B49)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S49" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B49)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B49)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -79161,11 +79138,11 @@
         <v>2024</v>
       </c>
       <c r="Q50" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B50)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B50)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S50" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B50)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B50)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -79204,11 +79181,11 @@
         <v>2024</v>
       </c>
       <c r="Q51" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B51)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B51)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S51" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B51)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B51)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -79247,11 +79224,11 @@
         <v>2023</v>
       </c>
       <c r="Q52" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B52)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B52)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S52" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B52)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B52)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -79290,11 +79267,11 @@
         <v>2023</v>
       </c>
       <c r="Q53" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B53)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B53)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S53" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B53)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B53)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -79333,12 +79310,12 @@
         <v>2025</v>
       </c>
       <c r="Q54" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B54)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B54)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="R54" s="3"/>
       <c r="S54" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B54)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B54)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -79377,11 +79354,11 @@
         <v>132</v>
       </c>
       <c r="Q55" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B55)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B55)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="S55" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B55)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B55)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -79420,12 +79397,12 @@
         <v>137</v>
       </c>
       <c r="Q56" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B56)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B56)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="R56" s="3"/>
       <c r="S56" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B56)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B56)&gt;0,"Sim","Não")</f>
         <v>Sim</v>
       </c>
     </row>
@@ -79464,12 +79441,12 @@
         <v>137</v>
       </c>
       <c r="Q57" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B57)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B57)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="R57" s="3"/>
       <c r="S57" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B57)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B57)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -79508,12 +79485,12 @@
         <v>137</v>
       </c>
       <c r="Q58" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!D:D,B58)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!D:D,B58)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
       <c r="R58" s="3"/>
       <c r="S58" s="3" t="str">
-        <f>IF(COUNTIF(ClientesPrevision!AD:AD,B58)&gt;0,"Sim","Não")</f>
+        <f>IF(COUNTIF(Planilha1!AD:AD,B58)&gt;0,"Sim","Não")</f>
         <v>Não</v>
       </c>
     </row>
@@ -79525,2271 +79502,4 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32C4738-C43A-4D4F-91F5-7E688F8765C5}">
-  <dimension ref="A1:U58"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="56.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="47.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="13.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" customWidth="1"/>
-    <col min="15" max="15" width="41.140625" customWidth="1"/>
-    <col min="16" max="16" width="23.5703125" customWidth="1"/>
-    <col min="18" max="18" width="5.5703125" customWidth="1"/>
-    <col min="20" max="20" width="28.5703125" customWidth="1"/>
-    <col min="21" max="21" width="40.140625" customWidth="1"/>
-    <col min="25" max="25" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="36.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>2575</v>
-      </c>
-      <c r="M1" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:21" s="3" customFormat="1">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1">
-        <v>11207083000100</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="1">
-        <v>2020</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="1">
-        <v>52850417000147</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="3" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2700286000143</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="3" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A5" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="39">
-        <v>53168688000180</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="39">
-        <v>4</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="3" customFormat="1" ht="45.6" customHeight="1">
-      <c r="A6" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="39">
-        <v>5439406000199</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="39">
-        <v>1</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="39">
-        <v>2024</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="3" customFormat="1">
-      <c r="A7" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="39">
-        <v>4016742000166</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="39">
-        <v>1</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="39">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="3" customFormat="1" ht="29.25">
-      <c r="A8" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="39">
-        <v>26606317000160</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="39">
-        <v>1</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="3" customFormat="1" ht="43.5">
-      <c r="A9" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="39">
-        <v>29531010000135</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="39">
-        <v>4</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="3" customFormat="1" ht="29.25">
-      <c r="A10" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="39">
-        <v>30213493000109</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="39">
-        <v>1</v>
-      </c>
-      <c r="I10" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="43"/>
-    </row>
-    <row r="11" spans="1:21" s="3" customFormat="1" ht="87">
-      <c r="A11" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="39">
-        <v>54635552000103</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="39">
-        <v>3</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>2577</v>
-      </c>
-      <c r="O11" s="44"/>
-      <c r="P11" s="37" t="s">
-        <v>2578</v>
-      </c>
-      <c r="U11" s="3">
-        <f>54-18</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" s="3" customFormat="1" ht="57.75">
-      <c r="A12" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="39">
-        <v>51571211000115</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="39">
-        <v>4</v>
-      </c>
-      <c r="I12" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="K12" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="N12" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="O12" s="45"/>
-      <c r="P12" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" s="3" customFormat="1" ht="43.5">
-      <c r="A13" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="47">
-        <v>33950222000124</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="39">
-        <v>3</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="J13" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="K13" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>2579</v>
-      </c>
-      <c r="O13" s="46"/>
-      <c r="T13" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="U13" s="37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" s="3" customFormat="1" ht="53.45" customHeight="1">
-      <c r="A14" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="39">
-        <v>7016112000180</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" s="40">
-        <v>3</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="J14" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="K14" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" s="3" customFormat="1" ht="29.25">
-      <c r="A15" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="39">
-        <v>22768840000301</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="39">
-        <v>1</v>
-      </c>
-      <c r="I15" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="J15" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="K15" s="39">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" s="3" customFormat="1" ht="29.25">
-      <c r="A16" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="39">
-        <v>7522191000109</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="I16" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="J16" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K16" s="39">
-        <v>2024</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" s="3" customFormat="1" ht="57.75">
-      <c r="A17" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="39">
-        <v>72030927000266</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="H17" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="I17" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="J17" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K17" s="39">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" s="3" customFormat="1" ht="29.25">
-      <c r="A18" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="39">
-        <v>5583483000118</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="H18" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="I18" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="J18" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="K18" s="39">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" s="3" customFormat="1" ht="29.25">
-      <c r="A19" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="39">
-        <v>64030638000158</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="40">
-        <v>1</v>
-      </c>
-      <c r="I19" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="J19" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="K19" s="40">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" s="3" customFormat="1" ht="29.25">
-      <c r="A20" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="39">
-        <v>12831357000109</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="40">
-        <v>1</v>
-      </c>
-      <c r="I20" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="J20" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="K20" s="40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" s="3" customFormat="1" ht="29.25">
-      <c r="A21" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="39">
-        <v>1637593002108</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21" s="40">
-        <v>3</v>
-      </c>
-      <c r="I21" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="J21" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="K21" s="40" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" s="3" customFormat="1" ht="29.25">
-      <c r="A22" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" s="39">
-        <v>16589137000163</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="39">
-        <v>5</v>
-      </c>
-      <c r="I22" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="J22" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="K22" s="40" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" s="3" customFormat="1" ht="43.5">
-      <c r="A23" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="B23" s="26">
-        <v>46665303000124</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F23" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H23" s="26">
-        <v>1</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="K23" s="28">
-        <v>2025</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" s="3" customFormat="1" ht="57.75">
-      <c r="A24" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" s="34">
-        <v>1</v>
-      </c>
-      <c r="I24" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="K24" s="34">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" s="3" customFormat="1" ht="42" customHeight="1">
-      <c r="A25" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="B25" s="31">
-        <v>60625829000101</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="G25" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="H25" s="35">
-        <v>2</v>
-      </c>
-      <c r="I25" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="K25" s="35">
-        <v>2022</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" s="3" customFormat="1" ht="72.75">
-      <c r="A26" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="B26" s="26">
-        <v>8797760000183</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="H26" s="26">
-        <v>10</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="K26" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" s="3" customFormat="1" ht="57.75">
-      <c r="A27" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="B27" s="34">
-        <v>6880884000100</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="G27" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="34">
-        <v>1</v>
-      </c>
-      <c r="I27" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="J27" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="K27" s="34">
-        <v>2021</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" s="3" customFormat="1" ht="43.5">
-      <c r="A28" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="B28" s="34">
-        <v>10202478000158</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="H28" s="34">
-        <v>8</v>
-      </c>
-      <c r="I28" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="K28" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" s="3" customFormat="1" ht="57.75">
-      <c r="A29" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="B29" s="34">
-        <v>40413547000133</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="34">
-        <v>1</v>
-      </c>
-      <c r="I29" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="J29" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="K29" s="34">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" s="3" customFormat="1" ht="43.5">
-      <c r="A30" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="B30" s="26">
-        <v>2534715000150</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="26">
-        <v>1</v>
-      </c>
-      <c r="I30" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J30" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="K30" s="26">
-        <v>2023</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" s="3" customFormat="1" ht="43.5">
-      <c r="A31" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="B31" s="34">
-        <v>34991490000157</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="34">
-        <v>1</v>
-      </c>
-      <c r="I31" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="J31" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="K31" s="34">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" s="3" customFormat="1">
-      <c r="A32" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="B32" s="34">
-        <v>537222000148</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="F32" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="34">
-        <v>1</v>
-      </c>
-      <c r="I32" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="J32" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="K32" s="34">
-        <v>2023</v>
-      </c>
-      <c r="L32" t="s">
-        <v>48</v>
-      </c>
-      <c r="M32" t="s">
-        <v>190</v>
-      </c>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="T32"/>
-      <c r="U32"/>
-    </row>
-    <row r="33" spans="1:20" s="3" customFormat="1" ht="72.75">
-      <c r="A33" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="B33" s="34">
-        <v>8170462000169</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="F33" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="G33" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="34">
-        <v>1</v>
-      </c>
-      <c r="I33" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="J33" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="K33" s="34">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" s="3" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A34" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="B34" s="30">
-        <v>8561077000142</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="G34" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="34">
-        <v>1</v>
-      </c>
-      <c r="I34" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="J34" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="K34" s="34">
-        <v>2023</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="57.75">
-      <c r="A35" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="B35" s="26">
-        <v>7461206000168</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="G35" s="49" t="s">
-        <v>200</v>
-      </c>
-      <c r="H35" s="26">
-        <v>6</v>
-      </c>
-      <c r="I35" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J35" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="K35" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="N35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-    </row>
-    <row r="36" spans="1:20" ht="29.25">
-      <c r="A36" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B36" s="34">
-        <v>23971011000114</v>
-      </c>
-      <c r="C36" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="F36" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="G36" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H36" s="34">
-        <v>2</v>
-      </c>
-      <c r="I36" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="J36" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="K36" s="34">
-        <v>2022</v>
-      </c>
-      <c r="L36" t="s">
-        <v>48</v>
-      </c>
-      <c r="M36" t="s">
-        <v>206</v>
-      </c>
-      <c r="N36" s="3"/>
-      <c r="S36" s="3"/>
-    </row>
-    <row r="37" spans="1:20" s="3" customFormat="1" ht="43.5">
-      <c r="A37" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="B37" s="26">
-        <v>19403252000190</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="H37" s="26">
-        <v>4</v>
-      </c>
-      <c r="I37" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="J37" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="K37" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="43.5">
-      <c r="A38" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="B38" s="34">
-        <v>17262213000194</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E38" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="F38" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="G38" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H38" s="34">
-        <v>10</v>
-      </c>
-      <c r="I38" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="J38" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="K38" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="L38" t="s">
-        <v>48</v>
-      </c>
-      <c r="M38" t="s">
-        <v>216</v>
-      </c>
-      <c r="N38" s="3"/>
-      <c r="S38" s="3"/>
-    </row>
-    <row r="39" spans="1:20" s="3" customFormat="1" ht="43.5">
-      <c r="A39" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="B39" s="34">
-        <v>59476770003254</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="F39" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="G39" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="H39" s="34">
-        <v>2</v>
-      </c>
-      <c r="I39" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="J39" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="K39" s="34" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="43.5">
-      <c r="A40" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="B40" s="34">
-        <v>17155391000116</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="F40" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="G40" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="H40" s="34">
-        <v>1</v>
-      </c>
-      <c r="I40" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="J40" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="K40" s="34">
-        <v>2018</v>
-      </c>
-      <c r="N40" s="3"/>
-      <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="1:20" ht="43.5">
-      <c r="A41" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="B41" s="34">
-        <v>58700428000127</v>
-      </c>
-      <c r="C41" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="F41" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="G41" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="H41" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="I41" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="J41" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="K41" s="34">
-        <v>2018</v>
-      </c>
-      <c r="N41" s="3"/>
-      <c r="S41" s="3"/>
-    </row>
-    <row r="42" spans="1:20" s="3" customFormat="1" ht="43.5">
-      <c r="A42" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="B42" s="34">
-        <v>57702933000148</v>
-      </c>
-      <c r="C42" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="F42" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="G42" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H42" s="34">
-        <v>2</v>
-      </c>
-      <c r="I42" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="J42" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K42" s="34">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="29.25">
-      <c r="A43" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="B43" s="34">
-        <v>78016003000188</v>
-      </c>
-      <c r="C43" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="F43" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="G43" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H43" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="I43" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="J43" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="K43" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="N43" s="3"/>
-      <c r="S43" s="3"/>
-    </row>
-    <row r="44" spans="1:20" s="3" customFormat="1" ht="43.5">
-      <c r="A44" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="B44" s="34">
-        <v>16811931000100</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E44" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="F44" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="G44" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="H44" s="34">
-        <v>1</v>
-      </c>
-      <c r="I44" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="J44" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="K44" s="34">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="29.25">
-      <c r="A45" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="B45" s="34">
-        <v>6977745000191</v>
-      </c>
-      <c r="C45" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="E45" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="F45" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="G45" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="H45" s="34">
-        <v>3</v>
-      </c>
-      <c r="I45" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="J45" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="K45" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="N45" s="3"/>
-      <c r="S45" s="3"/>
-    </row>
-    <row r="46" spans="1:20" ht="43.5">
-      <c r="A46" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="B46" s="34">
-        <v>76487222000142</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E46" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="F46" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="G46" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="H46" s="34">
-        <v>1</v>
-      </c>
-      <c r="I46" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="J46" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="K46" s="34">
-        <v>2021</v>
-      </c>
-      <c r="L46" t="s">
-        <v>250</v>
-      </c>
-      <c r="M46" t="s">
-        <v>251</v>
-      </c>
-      <c r="N46" s="3"/>
-      <c r="S46" s="3"/>
-    </row>
-    <row r="47" spans="1:20" s="3" customFormat="1">
-      <c r="A47" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="B47" s="34">
-        <v>2730611000200</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="E47" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="F47" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="G47" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="H47" s="34">
-        <v>1</v>
-      </c>
-      <c r="I47" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="J47" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="K47" s="34">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" s="3" customFormat="1">
-      <c r="A48" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="B48" s="34">
-        <v>60746948000112</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="E48" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="F48" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="G48" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="H48" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="I48" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="J48" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="K48" s="34">
-        <v>2021</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>2580</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" s="3" customFormat="1" ht="43.5">
-      <c r="A49" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="B49" s="34">
-        <v>34163648000109</v>
-      </c>
-      <c r="C49" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E49" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="F49" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="G49" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H49" s="34">
-        <v>1</v>
-      </c>
-      <c r="I49" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="J49" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="K49" s="34" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" s="3" customFormat="1" ht="43.5">
-      <c r="A50" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="B50" s="34">
-        <v>34576844000105</v>
-      </c>
-      <c r="C50" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="F50" s="34" t="s">
-        <v>265</v>
-      </c>
-      <c r="G50" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H50" s="34">
-        <v>3</v>
-      </c>
-      <c r="I50" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="J50" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="K50" s="34" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" s="3" customFormat="1" ht="29.25">
-      <c r="A51" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="B51" s="34">
-        <v>33592510000154</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="F51" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="G51" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="H51" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="I51" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="J51" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="K51" s="34">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" s="3" customFormat="1">
-      <c r="A52" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="B52" s="26">
-        <v>13031257000152</v>
-      </c>
-      <c r="C52" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="F52" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="G52" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="H52" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="I52" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="J52" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="K52" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" s="3" customFormat="1" ht="29.25">
-      <c r="A53" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="B53" s="34">
-        <v>32909546000156</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E53" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="F53" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="G53" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H53" s="34">
-        <v>1</v>
-      </c>
-      <c r="I53" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="J53" s="34" t="s">
-        <v>280</v>
-      </c>
-      <c r="K53" s="34">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" ht="29.25">
-      <c r="A54" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="B54" s="34">
-        <v>24301458000149</v>
-      </c>
-      <c r="C54" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D54" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E54" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="F54" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="G54" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="H54" s="34">
-        <v>1</v>
-      </c>
-      <c r="I54" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="J54" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="K54" s="34">
-        <v>2022</v>
-      </c>
-      <c r="N54" s="3"/>
-      <c r="S54" s="3"/>
-    </row>
-    <row r="55" spans="1:19" s="3" customFormat="1" ht="29.25">
-      <c r="A55" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="B55" s="34">
-        <v>40321770000150</v>
-      </c>
-      <c r="C55" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="E55" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="F55" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="G55" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="H55" s="34">
-        <v>1</v>
-      </c>
-      <c r="I55" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="J55" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="K55" s="34">
-        <v>2022</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" ht="29.25">
-      <c r="A56" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="B56" s="34">
-        <v>23347255001283</v>
-      </c>
-      <c r="C56" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D56" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="F56" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="G56" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="H56" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="I56" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="J56" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="K56" s="34">
-        <v>2023</v>
-      </c>
-      <c r="N56" s="3"/>
-      <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="1:19" ht="43.5">
-      <c r="A57" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="B57" s="34">
-        <v>9477732000141</v>
-      </c>
-      <c r="C57" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D57" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="E57" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="F57" s="33" t="s">
-        <v>293</v>
-      </c>
-      <c r="G57" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="H57" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="I57" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="J57" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="K57" s="34">
-        <v>2023</v>
-      </c>
-      <c r="N57" s="3"/>
-      <c r="S57" s="3"/>
-    </row>
-    <row r="58" spans="1:19" ht="29.25">
-      <c r="A58" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="B58" s="30">
-        <v>24230275000180</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="F58" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="H58" s="39">
-        <v>3</v>
-      </c>
-      <c r="I58" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="J58" s="39" t="s">
-        <v>284</v>
-      </c>
-      <c r="K58" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="L58" t="s">
-        <v>298</v>
-      </c>
-      <c r="M58" t="s">
-        <v>49</v>
-      </c>
-      <c r="N58" s="3"/>
-      <c r="S58" s="3"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:N58" xr:uid="{F32C4738-C43A-4D4F-91F5-7E688F8765C5}"/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B47" r:id="rId1" display="https://www.google.com/search?q=02.730.611%2F0002-00&amp;sca_esv=ad06492741db6b4e&amp;sxsrf=AE3TifMRUTI_FDhCmKG0j3xZ51Q22mo26g%3A1762288138720&amp;ei=CmIKadjZK8Wx5OUPz_m1oQo&amp;ved=2ahUKEwiLjJ2Jq9mQAxVfBrkGHXCAAa4QgK4QegQIARAB&amp;uact=5&amp;oq=Cushman+%26+Wakefield+cnpj&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiGEN1c2htYW4gJiBXYWtlZmllbGQgY25wajIFEAAYgAQyBhAAGAcYHjIGEAAYBxgeMgYQABgIGB4yCBAAGIAEGKIEMggQABiABBiiBDIIEAAYgAQYogRIlwJQAFgAcAB4AJABAJgBmAGgAZgBqgEDMC4xuAEDyAEA-AEC-AEBmAIBoAKnAZgDAJIHAzAuMaAHzQSyBwMwLjG4B6cBwgcDMy0xyAcK&amp;sclient=gws-wiz-serp&amp;mstk=AUtExfAYkb-8kwaq_bMlGIx_BgGfv7-Mgi9w2tnkBBM3jXn6hMQjcAMApeglmKuO-9NCJS1j2L8Pf3O4Fm28KdTJvQfoyqVDJwyimy1sSPFJOUMveSC7hxZHRycYZP1DlQqzdj0VgXCsS5t8DmINNUmNXqmNxFkEmRaVIXa3GLVMJhGXTD2WqaeyhA4TD17vi1ZdI9Oci7K6VXaGsreY-vNQXi4wrjerstrtTPUSzWJgu8_S5rVfMlVKAh8p1pI5BEfvP3GMGmWwRxT29WaNGzQWsQQg&amp;csui=3" xr:uid="{0743213B-1628-41B4-8754-68BC8C76A1FB}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/Lib+Prevision.xlsx
+++ b/Lib+Prevision.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1Pqk8BK6G5HWTDTy2dBLQ1aZ940QLrSRg\LIB Setor Construção\24- Compilado de todos os projetos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9E57F22-6A1C-42DF-85DC-B01436BB0E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B4CE1C6-32EC-419E-A2DB-FF2DC0A32530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{C50B0522-ECE5-4388-8E25-2BCB4D9422AB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Clientes" sheetId="5" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="5" r:id="rId1"/>
+    <sheet name="Clientes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clientes!$A$1:$O$58</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha1!$A$1:$X$785</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$O$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clientes!$A$1:$X$785</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>

--- a/Lib+Prevision.xlsx
+++ b/Lib+Prevision.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1Pqk8BK6G5HWTDTy2dBLQ1aZ940QLrSRg\LIB Setor Construção\24- Compilado de todos os projetos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9913C410-FC1B-4EBF-AE7D-3370987AA01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2C1AB3E-9199-4E95-BE81-2B2019A71BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{C50B0522-ECE5-4388-8E25-2BCB4D9422AB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="5" r:id="rId1"/>
-    <sheet name="Clientes" sheetId="2" r:id="rId2"/>
+    <sheet name="Clientes" sheetId="5" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$O$58</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clientes!$A$1:$X$785</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clientes!$A$1:$O$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha1!$A$1:$X$785</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -10050,8 +10050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4D174C-1E4D-424C-813F-F35000897C7B}">
   <dimension ref="A1:AX803"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE177" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:AX181"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="K169" sqref="K169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
